--- a/laravel/public/DEAreport.xlsx
+++ b/laravel/public/DEAreport.xlsx
@@ -479,13 +479,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.3000135998912009</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.533321243993109</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.3999728002175982</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -496,19 +496,19 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.1999782395822</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.1000045332970669</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.2285603264037303</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.1999864001087991</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.4686580465857439</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -516,19 +516,19 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.1110976789168278</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.06000271997824017</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.1454464528572488</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.1333242667391994</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3060440194568112</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -536,19 +536,19 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.07691342009457254</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.04285908569874298</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.1066603804377391</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.09999320005439956</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.2272078843657296</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -556,19 +556,19 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.2000181340103364</v>
+        <v>0.8331822302810517</v>
       </c>
       <c r="C8">
-        <v>0.3333585190782017</v>
+        <v>0.06250354167847226</v>
       </c>
       <c r="D8">
-        <v>0.4285991839906742</v>
+        <v>0.3333144443814813</v>
       </c>
       <c r="E8">
-        <v>0.5000283334277781</v>
+        <v>0.888788153520701</v>
       </c>
       <c r="F8">
-        <v>0.5000283334277781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -576,19 +576,19 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.2000181340103364</v>
+        <v>0.5554548201873677</v>
       </c>
       <c r="C9">
-        <v>0.3333585190782017</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D9">
-        <v>0.4285991839906742</v>
+        <v>0.6665911151405258</v>
       </c>
       <c r="E9">
-        <v>0.5000283334277781</v>
+        <v>0.2666485334783988</v>
       </c>
       <c r="F9">
-        <v>0.5000283334277781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -596,19 +596,19 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.2000181340103364</v>
+        <v>0.4165911151405258</v>
       </c>
       <c r="C10">
-        <v>0.3333585190782017</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.4285991839906742</v>
+        <v>0.2222054323599411</v>
       </c>
       <c r="E10">
-        <v>0.5000283334277781</v>
+        <v>0.4444276539478655</v>
       </c>
       <c r="F10">
-        <v>0.5000283334277781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -616,19 +616,19 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.2000181340103364</v>
+        <v>0.2777483944087646</v>
       </c>
       <c r="C11">
-        <v>0.3333585190782017</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
-        <v>0.4285991839906742</v>
+        <v>0.1666572221907406</v>
       </c>
       <c r="E11">
-        <v>0.5000283334277781</v>
+        <v>0.533321243993109</v>
       </c>
       <c r="F11">
-        <v>0.5000283334277781</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -636,19 +636,19 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.1111167078023472</v>
+        <v>0.08927530600349717</v>
       </c>
       <c r="C12">
-        <v>0.2000090665941339</v>
+        <v>0.0250014166713889</v>
       </c>
       <c r="D12">
-        <v>0.2727385122604575</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0.3333459257300442</v>
+        <v>0.0714242346969752</v>
       </c>
       <c r="F12">
-        <v>0.3333459257300442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -656,19 +656,19 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.1111167078023472</v>
+        <v>0.07811470706984849</v>
       </c>
       <c r="C13">
-        <v>0.2000090665941339</v>
+        <v>0.0288475369748009</v>
       </c>
       <c r="D13">
-        <v>0.2727385122604575</v>
+        <v>0.06666288887629625</v>
       </c>
       <c r="E13">
-        <v>0.3333459257300442</v>
+        <v>0.4999575010624733</v>
       </c>
       <c r="F13">
-        <v>0.3333459257300442</v>
+        <v>0.5384555874592841</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -676,19 +676,19 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.1111167078023472</v>
+        <v>0.06249150006799946</v>
       </c>
       <c r="C14">
-        <v>0.2000090665941339</v>
+        <v>0.07500339997280021</v>
       </c>
       <c r="D14">
-        <v>0.2727385122604575</v>
+        <v>0.0714242346969752</v>
       </c>
       <c r="E14">
-        <v>0.3333459257300442</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.3333459257300442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -696,19 +696,19 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.1111167078023472</v>
+        <v>0.05681080579853491</v>
       </c>
       <c r="C15">
-        <v>0.2000090665941339</v>
+        <v>0.03409266528606311</v>
       </c>
       <c r="D15">
-        <v>0.2727385122604575</v>
+        <v>0.07691804736436034</v>
       </c>
       <c r="E15">
-        <v>0.3333459257300442</v>
+        <v>0.06666288887629625</v>
       </c>
       <c r="F15">
-        <v>0.3333459257300442</v>
+        <v>0.1568760495602367</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -716,19 +716,19 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.07692844190263635</v>
+        <v>0.06943578700817891</v>
       </c>
       <c r="C16">
-        <v>0.142866394663558</v>
+        <v>0.07143319733177902</v>
       </c>
       <c r="D16">
-        <v>0.200012088974855</v>
+        <v>0.6665911151405258</v>
       </c>
       <c r="E16">
-        <v>0.250014166713889</v>
+        <v>0.1025578435304169</v>
       </c>
       <c r="F16">
-        <v>0.250014166713889</v>
+        <v>0.9119841169703734</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -736,19 +736,19 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.07692844190263635</v>
+        <v>0.0595159070671092</v>
       </c>
       <c r="C17">
-        <v>0.142866394663558</v>
+        <v>0.06250354167847226</v>
       </c>
       <c r="D17">
-        <v>0.200012088974855</v>
+        <v>0.2222054323599411</v>
       </c>
       <c r="E17">
-        <v>0.250014166713889</v>
+        <v>0.1481388203294212</v>
       </c>
       <c r="F17">
-        <v>0.250014166713889</v>
+        <v>0.4022883977136881</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -756,19 +756,19 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.07692844190263635</v>
+        <v>0.05554883945841392</v>
       </c>
       <c r="C18">
-        <v>0.142866394663558</v>
+        <v>0.05555835390117362</v>
       </c>
       <c r="D18">
-        <v>0.200012088974855</v>
+        <v>0.1481388203294212</v>
       </c>
       <c r="E18">
-        <v>0.250014166713889</v>
+        <v>0.1904669386697753</v>
       </c>
       <c r="F18">
-        <v>0.250014166713889</v>
+        <v>0.3870338813973101</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -776,19 +776,19 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.07692844190263635</v>
+        <v>0.05207684025613419</v>
       </c>
       <c r="C19">
-        <v>0.142866394663558</v>
+        <v>0.04166902778564817</v>
       </c>
       <c r="D19">
-        <v>0.200012088974855</v>
+        <v>0.2666485334783988</v>
       </c>
       <c r="E19">
-        <v>0.250014166713889</v>
+        <v>0.1212058768983494</v>
       </c>
       <c r="F19">
-        <v>0.250014166713889</v>
+        <v>0.4216951044885016</v>
       </c>
     </row>
   </sheetData>

--- a/laravel/public/DEAreport.xlsx
+++ b/laravel/public/DEAreport.xlsx
@@ -476,16 +476,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.6000271997824017</v>
       </c>
       <c r="C4">
-        <v>0.3000135998912009</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0.533321243993109</v>
+        <v>0.7999456004351965</v>
       </c>
       <c r="E4">
-        <v>0.3999728002175982</v>
+        <v>0.08000435200464213</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -496,19 +496,19 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.1999782395822</v>
+        <v>0.07500339997280021</v>
       </c>
       <c r="C5">
-        <v>0.1000045332970669</v>
+        <v>0.09089785119062337</v>
       </c>
       <c r="D5">
-        <v>0.2285603264037303</v>
+        <v>0.3999728002175982</v>
       </c>
       <c r="E5">
-        <v>0.1999864001087991</v>
+        <v>0.6000271997824017</v>
       </c>
       <c r="F5">
-        <v>0.4686580465857439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -516,19 +516,19 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.1110976789168278</v>
+        <v>0.1500067999456004</v>
       </c>
       <c r="C6">
-        <v>0.06000271997824017</v>
+        <v>0.1666440001813319</v>
       </c>
       <c r="D6">
-        <v>0.1454464528572488</v>
+        <v>0.2666485334783988</v>
       </c>
       <c r="E6">
-        <v>0.1333242667391994</v>
+        <v>0.09231284261622798</v>
       </c>
       <c r="F6">
-        <v>0.3060440194568112</v>
+        <v>0.6879271642206124</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -536,19 +536,19 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.07691342009457254</v>
+        <v>0.24001740833424</v>
       </c>
       <c r="C7">
-        <v>0.04285908569874298</v>
+        <v>0.1428404896055955</v>
       </c>
       <c r="D7">
-        <v>0.1066603804377391</v>
+        <v>0.1999864001087991</v>
       </c>
       <c r="E7">
-        <v>0.09999320005439956</v>
+        <v>0.3000135998912009</v>
       </c>
       <c r="F7">
-        <v>0.2272078843657296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -556,16 +556,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.8331822302810517</v>
+        <v>0.2222334156046945</v>
       </c>
       <c r="C8">
-        <v>0.06250354167847226</v>
+        <v>0.4165911151405258</v>
       </c>
       <c r="D8">
-        <v>0.3333144443814813</v>
+        <v>0.2666485334783988</v>
       </c>
       <c r="E8">
-        <v>0.888788153520701</v>
+        <v>0.181825674840305</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -576,16 +576,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.5554548201873677</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.1041536805122684</v>
       </c>
       <c r="D9">
-        <v>0.6665911151405258</v>
+        <v>0.2222054323599411</v>
       </c>
       <c r="E9">
-        <v>0.2666485334783988</v>
+        <v>0.3333585190782017</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.4165911151405258</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.1190337413379962</v>
       </c>
       <c r="D10">
-        <v>0.2222054323599411</v>
+        <v>0.1904669386697753</v>
       </c>
       <c r="E10">
-        <v>0.4444276539478655</v>
+        <v>0.2222334156046945</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -616,16 +616,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.2777483944087646</v>
+        <v>0.181825674840305</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.2083073610245368</v>
       </c>
       <c r="D11">
         <v>0.1666572221907406</v>
       </c>
       <c r="E11">
-        <v>0.533321243993109</v>
+        <v>0.250014166713889</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -636,16 +636,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.08927530600349717</v>
+        <v>0.1250070833569445</v>
       </c>
       <c r="C12">
-        <v>0.0250014166713889</v>
+        <v>0.2083073610245368</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.0714242346969752</v>
+        <v>0.1071497959976685</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -656,19 +656,19 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.07811470706984849</v>
+        <v>0.05769507394960181</v>
       </c>
       <c r="C13">
-        <v>0.0288475369748009</v>
+        <v>0.06943578700817891</v>
       </c>
       <c r="D13">
-        <v>0.06666288887629625</v>
+        <v>0.3333144443814813</v>
       </c>
       <c r="E13">
-        <v>0.4999575010624733</v>
+        <v>0.07500339997280021</v>
       </c>
       <c r="F13">
-        <v>0.5384555874592841</v>
+        <v>0.5242514672868854</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -676,19 +676,19 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.06249150006799946</v>
+        <v>0.07500339997280021</v>
       </c>
       <c r="C14">
-        <v>0.07500339997280021</v>
+        <v>0.04166147220490735</v>
       </c>
       <c r="D14">
-        <v>0.0714242346969752</v>
+        <v>0.1999864001087991</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.1500067999456004</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.5848101603353506</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -696,19 +696,19 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.05681080579853491</v>
+        <v>0.05000283334277781</v>
       </c>
       <c r="C15">
-        <v>0.03409266528606311</v>
+        <v>0.3124521886952826</v>
       </c>
       <c r="D15">
-        <v>0.07691804736436034</v>
+        <v>0.1428502040023314</v>
       </c>
       <c r="E15">
-        <v>0.06666288887629625</v>
+        <v>0.06250354167847226</v>
       </c>
       <c r="F15">
-        <v>0.1568760495602367</v>
+        <v>0.5468714274534014</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -716,19 +716,19 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.06943578700817891</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0.07143319733177902</v>
+        <v>0.08332200009066593</v>
       </c>
       <c r="D16">
-        <v>0.6665911151405258</v>
+        <v>0.1481388203294212</v>
       </c>
       <c r="E16">
-        <v>0.1025578435304169</v>
+        <v>0.3333585190782017</v>
       </c>
       <c r="F16">
-        <v>0.9119841169703734</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -736,19 +736,19 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.0595159070671092</v>
+        <v>0.08333805557129634</v>
       </c>
       <c r="C17">
-        <v>0.06250354167847226</v>
+        <v>0.06409429323662233</v>
       </c>
       <c r="D17">
-        <v>0.2222054323599411</v>
+        <v>0.1212058768983494</v>
       </c>
       <c r="E17">
-        <v>0.1481388203294212</v>
+        <v>0.07143204079980571</v>
       </c>
       <c r="F17">
-        <v>0.4022883977136881</v>
+        <v>0.3909378073534477</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -756,19 +756,19 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.05554883945841392</v>
+        <v>0.07143204079980571</v>
       </c>
       <c r="C18">
-        <v>0.05555835390117362</v>
+        <v>0.1666440001813319</v>
       </c>
       <c r="D18">
-        <v>0.1481388203294212</v>
+        <v>0.1025578435304169</v>
       </c>
       <c r="E18">
-        <v>0.1904669386697753</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.3870338813973101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -776,19 +776,19 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.05207684025613419</v>
+        <v>0.142866394663558</v>
       </c>
       <c r="C19">
-        <v>0.04166902778564817</v>
+        <v>0.06943578700817891</v>
       </c>
       <c r="D19">
-        <v>0.2666485334783988</v>
+        <v>0.08888418762088973</v>
       </c>
       <c r="E19">
-        <v>0.1212058768983494</v>
+        <v>0.06250354167847226</v>
       </c>
       <c r="F19">
-        <v>0.4216951044885016</v>
+        <v>0.369310446118627</v>
       </c>
     </row>
   </sheetData>
